--- a/MainTop/10.12.2024/макс/отправить.xlsx
+++ b/MainTop/10.12.2024/макс/отправить.xlsx
@@ -429,7 +429,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -446,6 +446,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF6F9D4"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -490,7 +496,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -509,6 +515,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -588,10 +598,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L109"/>
+  <dimension ref="A1:M110"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L49" activeCellId="0" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -659,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>352</v>
@@ -672,7 +682,7 @@
       </c>
       <c r="L2" s="1" t="n">
         <f aca="false">J2-G2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -923,7 +933,7 @@
         <v>10</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>352</v>
@@ -936,7 +946,7 @@
       </c>
       <c r="L10" s="1" t="n">
         <f aca="false">J10-G10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -956,7 +966,7 @@
         <v>10</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>352</v>
@@ -969,7 +979,7 @@
       </c>
       <c r="L11" s="1" t="n">
         <f aca="false">J11-G11</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -989,7 +999,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>352</v>
@@ -1002,7 +1012,7 @@
       </c>
       <c r="L12" s="1" t="n">
         <f aca="false">J12-G12</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1022,7 +1032,7 @@
         <v>10</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>352</v>
@@ -1035,7 +1045,7 @@
       </c>
       <c r="L13" s="1" t="n">
         <f aca="false">J13-G13</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1055,7 +1065,7 @@
         <v>10</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>352</v>
@@ -1068,7 +1078,7 @@
       </c>
       <c r="L14" s="1" t="n">
         <f aca="false">J14-G14</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1451,7 +1461,7 @@
         <v>10</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>352</v>
@@ -1464,7 +1474,7 @@
       </c>
       <c r="L26" s="1" t="n">
         <f aca="false">J26-G26</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1484,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>352</v>
@@ -1497,7 +1507,7 @@
       </c>
       <c r="L27" s="1" t="n">
         <f aca="false">J27-G27</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1517,7 +1527,7 @@
         <v>10</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>352</v>
@@ -1530,7 +1540,7 @@
       </c>
       <c r="L28" s="1" t="n">
         <f aca="false">J28-G28</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1550,7 +1560,7 @@
         <v>10</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>352</v>
@@ -1563,7 +1573,7 @@
       </c>
       <c r="L29" s="1" t="n">
         <f aca="false">J29-G29</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1583,7 +1593,7 @@
         <v>10</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>352</v>
@@ -1596,7 +1606,7 @@
       </c>
       <c r="L30" s="1" t="n">
         <f aca="false">J30-G30</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1616,7 +1626,7 @@
         <v>10</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>352</v>
@@ -1629,7 +1639,7 @@
       </c>
       <c r="L31" s="1" t="n">
         <f aca="false">J31-G31</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1682,7 +1692,7 @@
         <v>10</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>352</v>
@@ -1695,7 +1705,7 @@
       </c>
       <c r="L33" s="1" t="n">
         <f aca="false">J33-G33</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1715,7 +1725,7 @@
         <v>10</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>352</v>
@@ -1728,7 +1738,7 @@
       </c>
       <c r="L34" s="1" t="n">
         <f aca="false">J34-G34</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1748,7 +1758,7 @@
         <v>10</v>
       </c>
       <c r="G35" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>352</v>
@@ -1761,7 +1771,7 @@
       </c>
       <c r="L35" s="1" t="n">
         <f aca="false">J35-G35</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1781,7 +1791,7 @@
         <v>10</v>
       </c>
       <c r="G36" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>352</v>
@@ -1794,7 +1804,7 @@
       </c>
       <c r="L36" s="1" t="n">
         <f aca="false">J36-G36</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1814,7 +1824,7 @@
         <v>10</v>
       </c>
       <c r="G37" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>352</v>
@@ -1827,7 +1837,7 @@
       </c>
       <c r="L37" s="1" t="n">
         <f aca="false">J37-G37</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1847,7 +1857,7 @@
         <v>10</v>
       </c>
       <c r="G38" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>352</v>
@@ -1860,7 +1870,7 @@
       </c>
       <c r="L38" s="1" t="n">
         <f aca="false">J38-G38</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1880,7 +1890,7 @@
         <v>10</v>
       </c>
       <c r="G39" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>352</v>
@@ -1893,7 +1903,7 @@
       </c>
       <c r="L39" s="1" t="n">
         <f aca="false">J39-G39</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1913,7 +1923,7 @@
         <v>10</v>
       </c>
       <c r="G40" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>352</v>
@@ -1926,7 +1936,7 @@
       </c>
       <c r="L40" s="1" t="n">
         <f aca="false">J40-G40</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1946,7 +1956,7 @@
         <v>10</v>
       </c>
       <c r="G41" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H41" s="0" t="n">
         <v>352</v>
@@ -1959,7 +1969,7 @@
       </c>
       <c r="L41" s="1" t="n">
         <f aca="false">J41-G41</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2193,68 +2203,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+    <row r="49" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C49" s="0" t="n">
+      <c r="C49" s="5" t="n">
         <v>0.6</v>
       </c>
-      <c r="D49" s="0" t="n">
+      <c r="D49" s="5" t="n">
         <v>45</v>
       </c>
-      <c r="E49" s="0" t="n">
+      <c r="E49" s="5" t="n">
         <v>40</v>
       </c>
-      <c r="F49" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G49" s="1" t="n">
+      <c r="F49" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G49" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="H49" s="0" t="n">
-        <v>352</v>
-      </c>
-      <c r="I49" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J49" s="2" t="n">
+      <c r="H49" s="5" t="n">
+        <v>352</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J49" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="L49" s="1" t="n">
+      <c r="L49" s="5" t="n">
         <f aca="false">J49-G49</f>
         <v>2</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+    <row r="50" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C50" s="0" t="n">
+      <c r="C50" s="5" t="n">
         <v>0.6</v>
       </c>
-      <c r="D50" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E50" s="0" t="n">
+      <c r="D50" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E50" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="F50" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G50" s="1" t="n">
+      <c r="F50" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G50" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="H50" s="0" t="n">
-        <v>352</v>
-      </c>
-      <c r="I50" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J50" s="2" t="n">
+      <c r="H50" s="5" t="n">
+        <v>352</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J50" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="L50" s="1" t="n">
+      <c r="L50" s="5" t="n">
         <f aca="false">J50-G50</f>
         <v>2</v>
       </c>
@@ -2292,35 +2302,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+    <row r="52" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C52" s="0" t="n">
+      <c r="C52" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="D52" s="0" t="n">
+      <c r="D52" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="E52" s="0" t="n">
+      <c r="E52" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="F52" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G52" s="1" t="n">
+      <c r="F52" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G52" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="H52" s="0" t="n">
-        <v>352</v>
-      </c>
-      <c r="I52" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J52" s="2" t="n">
+      <c r="H52" s="5" t="n">
+        <v>352</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J52" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="L52" s="1" t="n">
+      <c r="L52" s="5" t="n">
         <f aca="false">J52-G52</f>
         <v>2</v>
       </c>
@@ -2358,35 +2368,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+    <row r="54" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C54" s="0" t="n">
+      <c r="C54" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="D54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E54" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F54" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G54" s="1" t="n">
+      <c r="D54" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F54" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G54" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="H54" s="0" t="n">
-        <v>352</v>
-      </c>
-      <c r="I54" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J54" s="2" t="n">
+      <c r="H54" s="5" t="n">
+        <v>352</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J54" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="L54" s="1" t="n">
+      <c r="L54" s="5" t="n">
         <f aca="false">J54-G54</f>
         <v>8</v>
       </c>
@@ -2524,1357 +2534,1480 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+      <c r="A59" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C59" s="0" t="n">
+      <c r="B59" s="5"/>
+      <c r="C59" s="5" t="n">
         <v>0.3</v>
       </c>
-      <c r="D59" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E59" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F59" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G59" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="H59" s="0" t="n">
-        <v>352</v>
-      </c>
-      <c r="I59" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J59" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="L59" s="1" t="n">
+      <c r="D59" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E59" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F59" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G59" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H59" s="5" t="n">
+        <v>352</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J59" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5" t="n">
         <f aca="false">J59-G59</f>
         <v>1</v>
       </c>
+      <c r="M59" s="5"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="A60" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C60" s="0" t="n">
+      <c r="B60" s="5"/>
+      <c r="C60" s="5" t="n">
         <v>0.3</v>
       </c>
-      <c r="D60" s="0" t="n">
+      <c r="D60" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="E60" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="F60" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G60" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="H60" s="0" t="n">
-        <v>352</v>
-      </c>
-      <c r="I60" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J60" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="L60" s="1" t="n">
+      <c r="E60" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="F60" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G60" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H60" s="5" t="n">
+        <v>352</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J60" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5" t="n">
         <f aca="false">J60-G60</f>
         <v>1</v>
       </c>
+      <c r="M60" s="5"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+      <c r="A61" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C61" s="0" t="n">
+      <c r="B61" s="5"/>
+      <c r="C61" s="5" t="n">
         <v>0.3</v>
       </c>
-      <c r="D61" s="0" t="n">
+      <c r="D61" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="E61" s="0" t="n">
+      <c r="E61" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="F61" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G61" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="H61" s="0" t="n">
-        <v>352</v>
-      </c>
-      <c r="I61" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J61" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="L61" s="1" t="n">
+      <c r="F61" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G61" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H61" s="5" t="n">
+        <v>352</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J61" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5" t="n">
         <f aca="false">J61-G61</f>
         <v>1</v>
       </c>
+      <c r="M61" s="5"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+      <c r="A62" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C62" s="0" t="n">
+      <c r="B62" s="5"/>
+      <c r="C62" s="5" t="n">
         <v>0.3</v>
       </c>
-      <c r="D62" s="0" t="n">
+      <c r="D62" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="E62" s="0" t="n">
+      <c r="E62" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="F62" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G62" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="H62" s="0" t="n">
-        <v>352</v>
-      </c>
-      <c r="I62" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J62" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="L62" s="1" t="n">
+      <c r="F62" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G62" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H62" s="5" t="n">
+        <v>352</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J62" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5" t="n">
         <f aca="false">J62-G62</f>
         <v>1</v>
       </c>
+      <c r="M62" s="5"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+      <c r="A63" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C63" s="0" t="n">
+      <c r="B63" s="5"/>
+      <c r="C63" s="5" t="n">
         <v>0.3</v>
       </c>
-      <c r="D63" s="0" t="n">
+      <c r="D63" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="E63" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G63" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="H63" s="0" t="n">
-        <v>352</v>
-      </c>
-      <c r="I63" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J63" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="L63" s="1" t="n">
+      <c r="E63" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G63" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H63" s="5" t="n">
+        <v>352</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J63" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5" t="n">
         <f aca="false">J63-G63</f>
         <v>1</v>
       </c>
+      <c r="M63" s="5"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+      <c r="A64" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C64" s="0" t="n">
+      <c r="B64" s="5"/>
+      <c r="C64" s="5" t="n">
         <v>0.3</v>
       </c>
-      <c r="D64" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F64" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G64" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="H64" s="0" t="n">
-        <v>352</v>
-      </c>
-      <c r="I64" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J64" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="L64" s="1" t="n">
+      <c r="D64" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F64" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G64" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H64" s="5" t="n">
+        <v>352</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J64" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5" t="n">
         <f aca="false">J64-G64</f>
         <v>1</v>
       </c>
+      <c r="M64" s="5"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+      <c r="A65" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C65" s="0" t="n">
+      <c r="B65" s="5"/>
+      <c r="C65" s="5" t="n">
         <v>0.3</v>
       </c>
-      <c r="D65" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E65" s="0" t="n">
+      <c r="D65" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="E65" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="F65" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G65" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="H65" s="0" t="n">
-        <v>352</v>
-      </c>
-      <c r="I65" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J65" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="L65" s="1" t="n">
+      <c r="F65" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G65" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H65" s="5" t="n">
+        <v>352</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J65" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5" t="n">
         <f aca="false">J65-G65</f>
         <v>1</v>
       </c>
+      <c r="M65" s="5"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+      <c r="A66" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C66" s="0" t="n">
+      <c r="B66" s="5"/>
+      <c r="C66" s="5" t="n">
         <v>0.3</v>
       </c>
-      <c r="D66" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E66" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G66" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="H66" s="0" t="n">
-        <v>352</v>
-      </c>
-      <c r="I66" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J66" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="L66" s="1" t="n">
+      <c r="D66" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E66" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G66" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H66" s="5" t="n">
+        <v>352</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J66" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5" t="n">
         <f aca="false">J66-G66</f>
         <v>1</v>
       </c>
+      <c r="M66" s="5"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+      <c r="A67" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C67" s="0" t="n">
+      <c r="B67" s="5"/>
+      <c r="C67" s="5" t="n">
         <v>0.3</v>
       </c>
-      <c r="D67" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E67" s="0" t="n">
+      <c r="D67" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E67" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="F67" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G67" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="H67" s="0" t="n">
-        <v>352</v>
-      </c>
-      <c r="I67" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J67" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="L67" s="1" t="n">
+      <c r="F67" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G67" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H67" s="5" t="n">
+        <v>352</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J67" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5" t="n">
         <f aca="false">J67-G67</f>
         <v>1</v>
       </c>
+      <c r="M67" s="5"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+      <c r="A68" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C68" s="0" t="n">
+      <c r="B68" s="5"/>
+      <c r="C68" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="D68" s="0" t="n">
+      <c r="D68" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="E68" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F68" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G68" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="H68" s="0" t="n">
-        <v>352</v>
-      </c>
-      <c r="I68" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J68" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="L68" s="1" t="n">
+      <c r="E68" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F68" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G68" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H68" s="5" t="n">
+        <v>352</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J68" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5" t="n">
         <f aca="false">J68-G68</f>
         <v>2</v>
       </c>
+      <c r="M68" s="5"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+      <c r="A69" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C69" s="0" t="n">
+      <c r="B69" s="5"/>
+      <c r="C69" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="D69" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E69" s="0" t="n">
+      <c r="D69" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E69" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="F69" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G69" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="H69" s="0" t="n">
-        <v>352</v>
-      </c>
-      <c r="I69" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J69" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="L69" s="1" t="n">
+      <c r="F69" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G69" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H69" s="5" t="n">
+        <v>352</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J69" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5" t="n">
         <f aca="false">J69-G69</f>
         <v>2</v>
       </c>
+      <c r="M69" s="5"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+      <c r="A70" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C70" s="0" t="n">
+      <c r="B70" s="5"/>
+      <c r="C70" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="D70" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E70" s="0" t="n">
+      <c r="D70" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E70" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="F70" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G70" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="H70" s="0" t="n">
-        <v>352</v>
-      </c>
-      <c r="I70" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J70" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="L70" s="1" t="n">
+      <c r="F70" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G70" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H70" s="5" t="n">
+        <v>352</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J70" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5" t="n">
         <f aca="false">J70-G70</f>
         <v>2</v>
       </c>
+      <c r="M70" s="5"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+      <c r="A71" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C71" s="0" t="n">
+      <c r="B71" s="5"/>
+      <c r="C71" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="D71" s="0" t="n">
+      <c r="D71" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="E71" s="0" t="n">
+      <c r="E71" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="F71" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G71" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="H71" s="0" t="n">
-        <v>352</v>
-      </c>
-      <c r="I71" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J71" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="L71" s="1" t="n">
+      <c r="F71" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G71" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H71" s="5" t="n">
+        <v>352</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J71" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5" t="n">
         <f aca="false">J71-G71</f>
         <v>2</v>
       </c>
+      <c r="M71" s="5"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+      <c r="A72" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C72" s="0" t="n">
+      <c r="B72" s="5"/>
+      <c r="C72" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="D72" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E72" s="0" t="n">
+      <c r="D72" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E72" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="F72" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G72" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="H72" s="0" t="n">
-        <v>352</v>
-      </c>
-      <c r="I72" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J72" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="L72" s="1" t="n">
+      <c r="F72" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G72" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H72" s="5" t="n">
+        <v>352</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J72" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5" t="n">
         <f aca="false">J72-G72</f>
         <v>2</v>
       </c>
+      <c r="M72" s="5"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+      <c r="A73" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C73" s="0" t="n">
+      <c r="B73" s="5"/>
+      <c r="C73" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="D73" s="0" t="n">
+      <c r="D73" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="E73" s="0" t="n">
+      <c r="E73" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="F73" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G73" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="H73" s="0" t="n">
-        <v>352</v>
-      </c>
-      <c r="I73" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J73" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="L73" s="1" t="n">
+      <c r="F73" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G73" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H73" s="5" t="n">
+        <v>352</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J73" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5" t="n">
         <f aca="false">J73-G73</f>
         <v>2</v>
       </c>
+      <c r="M73" s="5"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+      <c r="A74" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C74" s="0" t="n">
+      <c r="B74" s="5"/>
+      <c r="C74" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="D74" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E74" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F74" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G74" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="H74" s="0" t="n">
-        <v>352</v>
-      </c>
-      <c r="I74" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J74" s="2" t="n">
+      <c r="D74" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G74" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="H74" s="5" t="n">
+        <v>352</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J74" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="L74" s="1" t="n">
+      <c r="K74" s="5"/>
+      <c r="L74" s="5" t="n">
         <f aca="false">J74-G74</f>
         <v>4</v>
       </c>
+      <c r="M74" s="5"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+      <c r="A75" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C75" s="0" t="n">
+      <c r="B75" s="5"/>
+      <c r="C75" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="D75" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E75" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F75" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G75" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="H75" s="0" t="n">
-        <v>352</v>
-      </c>
-      <c r="I75" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J75" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="L75" s="1" t="n">
+      <c r="D75" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E75" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G75" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H75" s="5" t="n">
+        <v>352</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J75" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5" t="n">
         <f aca="false">J75-G75</f>
         <v>2</v>
       </c>
+      <c r="M75" s="5"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+      <c r="A76" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C76" s="0" t="n">
+      <c r="B76" s="5"/>
+      <c r="C76" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="D76" s="0" t="n">
+      <c r="D76" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="E76" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F76" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G76" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="H76" s="0" t="n">
-        <v>352</v>
-      </c>
-      <c r="I76" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J76" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="L76" s="1" t="n">
+      <c r="E76" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G76" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H76" s="5" t="n">
+        <v>352</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J76" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5" t="n">
         <f aca="false">J76-G76</f>
         <v>2</v>
       </c>
+      <c r="M76" s="5"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+      <c r="A77" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C77" s="0" t="n">
+      <c r="B77" s="5"/>
+      <c r="C77" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="D77" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E77" s="0" t="n">
+      <c r="D77" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E77" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="F77" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G77" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="H77" s="0" t="n">
-        <v>352</v>
-      </c>
-      <c r="I77" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J77" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="L77" s="1" t="n">
+      <c r="F77" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G77" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H77" s="5" t="n">
+        <v>352</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J77" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K77" s="5"/>
+      <c r="L77" s="5" t="n">
         <f aca="false">J77-G77</f>
         <v>2</v>
       </c>
+      <c r="M77" s="5"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+      <c r="A78" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C78" s="0" t="n">
+      <c r="B78" s="5"/>
+      <c r="C78" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="D78" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E78" s="0" t="n">
+      <c r="D78" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E78" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="F78" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G78" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="H78" s="0" t="n">
-        <v>352</v>
-      </c>
-      <c r="I78" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J78" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="L78" s="1" t="n">
+      <c r="F78" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G78" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H78" s="5" t="n">
+        <v>352</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J78" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5" t="n">
         <f aca="false">J78-G78</f>
         <v>2</v>
       </c>
+      <c r="M78" s="5"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+      <c r="A79" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C79" s="0" t="n">
+      <c r="B79" s="5"/>
+      <c r="C79" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="D79" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E79" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F79" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G79" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="H79" s="0" t="n">
-        <v>352</v>
-      </c>
-      <c r="I79" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J79" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="L79" s="1" t="n">
+      <c r="D79" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E79" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F79" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G79" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H79" s="5" t="n">
+        <v>352</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J79" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K79" s="5"/>
+      <c r="L79" s="5" t="n">
         <f aca="false">J79-G79</f>
         <v>2</v>
       </c>
+      <c r="M79" s="5"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+      <c r="A80" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C80" s="0" t="n">
+      <c r="B80" s="5"/>
+      <c r="C80" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="D80" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E80" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="F80" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G80" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="H80" s="0" t="n">
-        <v>352</v>
-      </c>
-      <c r="I80" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J80" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="L80" s="1" t="n">
+      <c r="D80" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E80" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F80" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G80" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H80" s="5" t="n">
+        <v>352</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J80" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K80" s="5"/>
+      <c r="L80" s="5" t="n">
         <f aca="false">J80-G80</f>
         <v>2</v>
       </c>
+      <c r="M80" s="5"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+      <c r="A81" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C81" s="0" t="n">
+      <c r="B81" s="5"/>
+      <c r="C81" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="D81" s="0" t="n">
+      <c r="D81" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="E81" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F81" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G81" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="H81" s="0" t="n">
-        <v>352</v>
-      </c>
-      <c r="I81" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J81" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="L81" s="1" t="n">
+      <c r="E81" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G81" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H81" s="5" t="n">
+        <v>352</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J81" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K81" s="5"/>
+      <c r="L81" s="5" t="n">
         <f aca="false">J81-G81</f>
         <v>2</v>
       </c>
+      <c r="M81" s="5"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+      <c r="A82" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C82" s="0" t="n">
+      <c r="B82" s="5"/>
+      <c r="C82" s="5" t="n">
         <v>0.1</v>
       </c>
-      <c r="D82" s="0" t="n">
+      <c r="D82" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="E82" s="0" t="n">
+      <c r="E82" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="F82" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G82" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H82" s="0" t="n">
-        <v>352</v>
-      </c>
-      <c r="I82" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J82" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="L82" s="1" t="n">
+      <c r="F82" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G82" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H82" s="5" t="n">
+        <v>352</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J82" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K82" s="5"/>
+      <c r="L82" s="5" t="n">
         <f aca="false">J82-G82</f>
         <v>3</v>
       </c>
+      <c r="M82" s="5"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+      <c r="A83" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C83" s="0" t="n">
+      <c r="B83" s="5"/>
+      <c r="C83" s="5" t="n">
         <v>0.1</v>
       </c>
-      <c r="D83" s="0" t="n">
+      <c r="D83" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="E83" s="0" t="n">
+      <c r="E83" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="F83" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G83" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H83" s="0" t="n">
-        <v>352</v>
-      </c>
-      <c r="I83" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J83" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="L83" s="1" t="n">
+      <c r="F83" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G83" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H83" s="5" t="n">
+        <v>352</v>
+      </c>
+      <c r="I83" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J83" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K83" s="5"/>
+      <c r="L83" s="5" t="n">
         <f aca="false">J83-G83</f>
         <v>3</v>
       </c>
+      <c r="M83" s="5"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+      <c r="A84" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C84" s="0" t="n">
+      <c r="B84" s="5"/>
+      <c r="C84" s="5" t="n">
         <v>0.1</v>
       </c>
-      <c r="D84" s="0" t="n">
+      <c r="D84" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="E84" s="0" t="n">
+      <c r="E84" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="F84" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G84" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H84" s="0" t="n">
-        <v>352</v>
-      </c>
-      <c r="I84" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J84" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="L84" s="1" t="n">
+      <c r="F84" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G84" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H84" s="5" t="n">
+        <v>352</v>
+      </c>
+      <c r="I84" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J84" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K84" s="5"/>
+      <c r="L84" s="5" t="n">
         <f aca="false">J84-G84</f>
         <v>3</v>
       </c>
+      <c r="M84" s="5"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+      <c r="A85" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C85" s="0" t="n">
+      <c r="B85" s="5"/>
+      <c r="C85" s="5" t="n">
         <v>0.1</v>
       </c>
-      <c r="D85" s="0" t="n">
+      <c r="D85" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="E85" s="0" t="n">
+      <c r="E85" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="F85" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G85" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H85" s="0" t="n">
-        <v>352</v>
-      </c>
-      <c r="I85" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J85" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="L85" s="1" t="n">
+      <c r="F85" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G85" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H85" s="5" t="n">
+        <v>352</v>
+      </c>
+      <c r="I85" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J85" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K85" s="5"/>
+      <c r="L85" s="5" t="n">
         <f aca="false">J85-G85</f>
         <v>3</v>
       </c>
+      <c r="M85" s="5"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+      <c r="A86" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C86" s="0" t="n">
+      <c r="B86" s="5"/>
+      <c r="C86" s="5" t="n">
         <v>0.1</v>
       </c>
-      <c r="D86" s="0" t="n">
+      <c r="D86" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="E86" s="0" t="n">
+      <c r="E86" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="F86" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G86" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H86" s="0" t="n">
-        <v>352</v>
-      </c>
-      <c r="I86" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J86" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="L86" s="1" t="n">
+      <c r="F86" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G86" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H86" s="5" t="n">
+        <v>352</v>
+      </c>
+      <c r="I86" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J86" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K86" s="5"/>
+      <c r="L86" s="5" t="n">
         <f aca="false">J86-G86</f>
         <v>3</v>
       </c>
+      <c r="M86" s="5"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+      <c r="A87" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C87" s="0" t="n">
+      <c r="B87" s="5"/>
+      <c r="C87" s="5" t="n">
         <v>0.1</v>
       </c>
-      <c r="D87" s="0" t="n">
+      <c r="D87" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="E87" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F87" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G87" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H87" s="0" t="n">
-        <v>352</v>
-      </c>
-      <c r="I87" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J87" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="L87" s="1" t="n">
+      <c r="E87" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G87" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H87" s="5" t="n">
+        <v>352</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J87" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K87" s="5"/>
+      <c r="L87" s="5" t="n">
         <f aca="false">J87-G87</f>
         <v>3</v>
       </c>
+      <c r="M87" s="5"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+      <c r="A88" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C88" s="0" t="n">
+      <c r="B88" s="5"/>
+      <c r="C88" s="5" t="n">
         <v>0.1</v>
       </c>
-      <c r="D88" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E88" s="0" t="n">
+      <c r="D88" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E88" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="F88" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G88" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H88" s="0" t="n">
-        <v>352</v>
-      </c>
-      <c r="I88" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J88" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="L88" s="1" t="n">
+      <c r="F88" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G88" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H88" s="5" t="n">
+        <v>352</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J88" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K88" s="5"/>
+      <c r="L88" s="5" t="n">
         <f aca="false">J88-G88</f>
         <v>3</v>
       </c>
+      <c r="M88" s="5"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+      <c r="A89" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C89" s="0" t="n">
+      <c r="B89" s="5"/>
+      <c r="C89" s="5" t="n">
         <v>0.1</v>
       </c>
-      <c r="D89" s="0" t="n">
+      <c r="D89" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="E89" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F89" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G89" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H89" s="0" t="n">
-        <v>352</v>
-      </c>
-      <c r="I89" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J89" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="L89" s="1" t="n">
+      <c r="E89" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G89" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H89" s="5" t="n">
+        <v>352</v>
+      </c>
+      <c r="I89" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J89" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K89" s="5"/>
+      <c r="L89" s="5" t="n">
         <f aca="false">J89-G89</f>
         <v>3</v>
       </c>
+      <c r="M89" s="5"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+      <c r="A90" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C90" s="0" t="n">
+      <c r="B90" s="5"/>
+      <c r="C90" s="5" t="n">
         <v>0.1</v>
       </c>
-      <c r="D90" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E90" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F90" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G90" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H90" s="0" t="n">
-        <v>352</v>
-      </c>
-      <c r="I90" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J90" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="L90" s="1" t="n">
+      <c r="D90" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="E90" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G90" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H90" s="5" t="n">
+        <v>352</v>
+      </c>
+      <c r="I90" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J90" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K90" s="5"/>
+      <c r="L90" s="5" t="n">
         <f aca="false">J90-G90</f>
         <v>3</v>
       </c>
+      <c r="M90" s="5"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+      <c r="A91" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C91" s="0" t="n">
+      <c r="B91" s="5"/>
+      <c r="C91" s="5" t="n">
         <v>0.1</v>
       </c>
-      <c r="D91" s="0" t="n">
+      <c r="D91" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="E91" s="0" t="n">
+      <c r="E91" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="F91" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G91" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H91" s="0" t="n">
-        <v>352</v>
-      </c>
-      <c r="I91" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J91" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="L91" s="1" t="n">
+      <c r="F91" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G91" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H91" s="5" t="n">
+        <v>352</v>
+      </c>
+      <c r="I91" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J91" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K91" s="5"/>
+      <c r="L91" s="5" t="n">
         <f aca="false">J91-G91</f>
         <v>3</v>
       </c>
+      <c r="M91" s="5"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
+      <c r="A92" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C92" s="0" t="n">
+      <c r="B92" s="5"/>
+      <c r="C92" s="5" t="n">
         <v>0.1</v>
       </c>
-      <c r="D92" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E92" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F92" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G92" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H92" s="0" t="n">
-        <v>352</v>
-      </c>
-      <c r="I92" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J92" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="L92" s="1" t="n">
+      <c r="D92" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F92" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G92" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H92" s="5" t="n">
+        <v>352</v>
+      </c>
+      <c r="I92" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J92" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K92" s="5"/>
+      <c r="L92" s="5" t="n">
         <f aca="false">J92-G92</f>
         <v>3</v>
       </c>
+      <c r="M92" s="5"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+      <c r="A93" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C93" s="0" t="n">
+      <c r="B93" s="5"/>
+      <c r="C93" s="5" t="n">
         <v>0.1</v>
       </c>
-      <c r="D93" s="0" t="n">
+      <c r="D93" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="E93" s="0" t="n">
+      <c r="E93" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="F93" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G93" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H93" s="0" t="n">
-        <v>352</v>
-      </c>
-      <c r="I93" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J93" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="L93" s="1" t="n">
+      <c r="F93" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G93" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H93" s="5" t="n">
+        <v>352</v>
+      </c>
+      <c r="I93" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J93" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K93" s="5"/>
+      <c r="L93" s="5" t="n">
         <f aca="false">J93-G93</f>
         <v>3</v>
       </c>
+      <c r="M93" s="5"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
+      <c r="A94" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C94" s="0" t="n">
+      <c r="B94" s="5"/>
+      <c r="C94" s="5" t="n">
         <v>0.1</v>
       </c>
-      <c r="D94" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E94" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F94" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G94" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H94" s="0" t="n">
-        <v>352</v>
-      </c>
-      <c r="I94" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J94" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="L94" s="1" t="n">
+      <c r="D94" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="E94" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G94" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H94" s="5" t="n">
+        <v>352</v>
+      </c>
+      <c r="I94" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J94" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K94" s="5"/>
+      <c r="L94" s="5" t="n">
         <f aca="false">J94-G94</f>
         <v>3</v>
       </c>
+      <c r="M94" s="5"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
+      <c r="A95" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C95" s="0" t="n">
+      <c r="B95" s="5"/>
+      <c r="C95" s="5" t="n">
         <v>0.1</v>
       </c>
-      <c r="D95" s="0" t="n">
+      <c r="D95" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="E95" s="0" t="n">
+      <c r="E95" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="F95" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G95" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H95" s="0" t="n">
-        <v>352</v>
-      </c>
-      <c r="I95" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J95" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="L95" s="1" t="n">
+      <c r="F95" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G95" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H95" s="5" t="n">
+        <v>352</v>
+      </c>
+      <c r="I95" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J95" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K95" s="5"/>
+      <c r="L95" s="5" t="n">
         <f aca="false">J95-G95</f>
         <v>3</v>
       </c>
+      <c r="M95" s="5"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
+      <c r="A96" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C96" s="0" t="n">
+      <c r="B96" s="5"/>
+      <c r="C96" s="5" t="n">
         <v>0.1</v>
       </c>
-      <c r="D96" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E96" s="0" t="n">
+      <c r="D96" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E96" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="F96" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G96" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H96" s="0" t="n">
-        <v>352</v>
-      </c>
-      <c r="I96" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J96" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="L96" s="1" t="n">
+      <c r="F96" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G96" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H96" s="5" t="n">
+        <v>352</v>
+      </c>
+      <c r="I96" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J96" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K96" s="5"/>
+      <c r="L96" s="5" t="n">
         <f aca="false">J96-G96</f>
         <v>3</v>
       </c>
+      <c r="M96" s="5"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
+      <c r="A97" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C97" s="0" t="n">
+      <c r="B97" s="5"/>
+      <c r="C97" s="5" t="n">
         <v>0.1</v>
       </c>
-      <c r="D97" s="0" t="n">
+      <c r="D97" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="E97" s="0" t="n">
+      <c r="E97" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="F97" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G97" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H97" s="0" t="n">
-        <v>352</v>
-      </c>
-      <c r="I97" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J97" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="L97" s="1" t="n">
+      <c r="F97" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G97" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H97" s="5" t="n">
+        <v>352</v>
+      </c>
+      <c r="I97" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J97" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K97" s="5"/>
+      <c r="L97" s="5" t="n">
         <f aca="false">J97-G97</f>
         <v>3</v>
       </c>
+      <c r="M97" s="5"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
+      <c r="A98" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C98" s="0" t="n">
+      <c r="B98" s="5"/>
+      <c r="C98" s="5" t="n">
         <v>0.1</v>
       </c>
-      <c r="D98" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E98" s="0" t="n">
+      <c r="D98" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E98" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="F98" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G98" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H98" s="0" t="n">
-        <v>352</v>
-      </c>
-      <c r="I98" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J98" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="L98" s="1" t="n">
+      <c r="F98" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G98" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H98" s="5" t="n">
+        <v>352</v>
+      </c>
+      <c r="I98" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J98" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K98" s="5"/>
+      <c r="L98" s="5" t="n">
         <f aca="false">J98-G98</f>
         <v>3</v>
       </c>
+      <c r="M98" s="5"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+      <c r="A99" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C99" s="0" t="n">
+      <c r="B99" s="5"/>
+      <c r="C99" s="5" t="n">
         <v>0.1</v>
       </c>
-      <c r="D99" s="0" t="n">
+      <c r="D99" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="E99" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F99" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G99" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H99" s="0" t="n">
-        <v>352</v>
-      </c>
-      <c r="I99" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J99" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="L99" s="1" t="n">
+      <c r="E99" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G99" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H99" s="5" t="n">
+        <v>352</v>
+      </c>
+      <c r="I99" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J99" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K99" s="5"/>
+      <c r="L99" s="5" t="n">
         <f aca="false">J99-G99</f>
         <v>3</v>
       </c>
+      <c r="M99" s="5"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
@@ -3909,167 +4042,167 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
+    <row r="101" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C101" s="0" t="n">
+      <c r="C101" s="5" t="n">
         <v>0.3</v>
       </c>
-      <c r="D101" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E101" s="0" t="n">
+      <c r="D101" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="E101" s="5" t="n">
         <v>61</v>
       </c>
-      <c r="F101" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G101" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="H101" s="0" t="n">
-        <v>352</v>
-      </c>
-      <c r="I101" s="0" t="s">
+      <c r="F101" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G101" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H101" s="5" t="n">
+        <v>352</v>
+      </c>
+      <c r="I101" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="J101" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="L101" s="1" t="n">
+      <c r="J101" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="L101" s="5" t="n">
         <f aca="false">J101-G101</f>
         <v>1</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
+    <row r="102" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C102" s="0" t="n">
+      <c r="C102" s="5" t="n">
         <v>0.3</v>
       </c>
-      <c r="D102" s="0" t="n">
+      <c r="D102" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="E102" s="0" t="n">
+      <c r="E102" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="F102" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G102" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="H102" s="0" t="n">
-        <v>352</v>
-      </c>
-      <c r="I102" s="0" t="s">
+      <c r="F102" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G102" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H102" s="5" t="n">
+        <v>352</v>
+      </c>
+      <c r="I102" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="J102" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="L102" s="1" t="n">
+      <c r="J102" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="L102" s="5" t="n">
         <f aca="false">J102-G102</f>
         <v>1</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
+    <row r="103" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C103" s="0" t="n">
+      <c r="C103" s="5" t="n">
         <v>0.3</v>
       </c>
-      <c r="D103" s="0" t="n">
+      <c r="D103" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="E103" s="0" t="n">
+      <c r="E103" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="F103" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G103" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="H103" s="0" t="n">
-        <v>352</v>
-      </c>
-      <c r="I103" s="0" t="s">
+      <c r="F103" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G103" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H103" s="5" t="n">
+        <v>352</v>
+      </c>
+      <c r="I103" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="J103" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="L103" s="1" t="n">
+      <c r="J103" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="L103" s="5" t="n">
         <f aca="false">J103-G103</f>
         <v>1</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
+    <row r="104" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C104" s="0" t="n">
+      <c r="C104" s="5" t="n">
         <v>0.3</v>
       </c>
-      <c r="D104" s="0" t="n">
+      <c r="D104" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="E104" s="0" t="n">
+      <c r="E104" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="F104" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G104" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="H104" s="0" t="n">
-        <v>352</v>
-      </c>
-      <c r="I104" s="0" t="s">
+      <c r="F104" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G104" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H104" s="5" t="n">
+        <v>352</v>
+      </c>
+      <c r="I104" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="J104" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="L104" s="1" t="n">
+      <c r="J104" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="L104" s="5" t="n">
         <f aca="false">J104-G104</f>
         <v>1</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
+    <row r="105" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C105" s="0" t="n">
+      <c r="C105" s="5" t="n">
         <v>0.3</v>
       </c>
-      <c r="D105" s="0" t="n">
+      <c r="D105" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="E105" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F105" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G105" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="H105" s="0" t="n">
-        <v>352</v>
-      </c>
-      <c r="I105" s="0" t="s">
+      <c r="E105" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F105" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G105" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H105" s="5" t="n">
+        <v>352</v>
+      </c>
+      <c r="I105" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="J105" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="L105" s="1" t="n">
+      <c r="J105" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="L105" s="5" t="n">
         <f aca="false">J105-G105</f>
         <v>1</v>
       </c>
@@ -4173,37 +4306,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
+    <row r="109" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C109" s="0" t="n">
+      <c r="C109" s="5" t="n">
         <v>0.1</v>
       </c>
-      <c r="D109" s="0" t="n">
+      <c r="D109" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="E109" s="0" t="n">
+      <c r="E109" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="F109" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G109" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H109" s="0" t="n">
-        <v>352</v>
-      </c>
-      <c r="I109" s="0" t="s">
+      <c r="F109" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G109" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H109" s="5" t="n">
+        <v>352</v>
+      </c>
+      <c r="I109" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="J109" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="L109" s="1" t="n">
+      <c r="J109" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L109" s="5" t="n">
         <f aca="false">J109-G109</f>
         <v>1</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G110" s="1" t="n">
+        <f aca="false">SUM(G2:G109)</f>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
